--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -710,13 +710,13 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
         <v>1.75</v>
@@ -851,13 +851,13 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>2.1</v>
@@ -872,7 +872,7 @@
         <v>6.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -996,13 +996,13 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
         <v>2.1</v>
@@ -1017,7 +1017,7 @@
         <v>6.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U4" t="n">
         <v>1.67</v>
@@ -1147,10 +1147,10 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
         <v>3.6</v>
@@ -1282,16 +1282,16 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1409,16 +1409,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
@@ -1427,16 +1427,16 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1457,10 +1457,10 @@
         <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
@@ -1481,7 +1481,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
@@ -1565,13 +1565,13 @@
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -1607,16 +1607,16 @@
         <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD8" t="n">
         <v>51</v>
@@ -1700,7 +1700,7 @@
         <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -1733,10 +1733,10 @@
         <v>1.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>2.5</v>
@@ -1748,7 +1748,7 @@
         <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>11</v>
@@ -1775,7 +1775,7 @@
         <v>101</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -1784,7 +1784,7 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>34</v>
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1850,10 +1850,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.67</v>
@@ -1898,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
@@ -1988,13 +1988,13 @@
         <v>1.73</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O11" t="n">
         <v>1.8</v>
@@ -2150,10 +2150,10 @@
         <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U12" t="n">
         <v>1.67</v>
@@ -2261,7 +2261,7 @@
         <v>2.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
@@ -2276,25 +2276,25 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P13" t="n">
         <v>2.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
         <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U13" t="n">
         <v>1.62</v>
@@ -2327,7 +2327,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
@@ -2339,22 +2339,22 @@
         <v>81</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO13" t="n">
         <v>101</v>
@@ -2410,7 +2410,7 @@
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
         <v>2.88</v>
@@ -2422,28 +2422,28 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2452,16 +2452,16 @@
         <v>2.5</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
         <v>6.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>9.5</v>
@@ -2476,19 +2476,19 @@
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>17</v>
@@ -2506,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="AO14" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AP14" t="n">
         <v>1.78</v>
@@ -2515,10 +2515,10 @@
         <v>2.1</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15">
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
@@ -2565,34 +2565,34 @@
         <v>2.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="U15" t="n">
         <v>1.5</v>
@@ -2601,13 +2601,13 @@
         <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2619,25 +2619,25 @@
         <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2646,28 +2646,28 @@
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.24</v>
+        <v>2.05</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="16">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="K16" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L16" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.1</v>
@@ -2726,82 +2726,82 @@
         <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>2.82</v>
+        <v>2.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="U16" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="V16" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="W16" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="X16" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD16" t="n">
         <v>37</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH16" t="n">
         <v>150</v>
       </c>
       <c r="AI16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO16" t="n">
         <v>101</v>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
@@ -2873,10 +2873,10 @@
         <v>2.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
         <v>4.33</v>
@@ -2885,16 +2885,16 @@
         <v>1.2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y17" t="n">
         <v>7</v>
@@ -3155,10 +3155,10 @@
         <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R19" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
         <v>3</v>
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>3.1</v>
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.6</v>
@@ -3425,10 +3425,10 @@
         <v>2.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>1.25</v>
@@ -3437,22 +3437,22 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
         <v>1.73</v>
@@ -3461,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
         <v>17</v>
@@ -3488,7 +3488,7 @@
         <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
@@ -3548,28 +3548,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -3584,10 +3584,10 @@
         <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U22" t="n">
         <v>1.5</v>
@@ -3614,7 +3614,7 @@
         <v>23</v>
       </c>
       <c r="AC22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
         <v>34</v>
@@ -3635,13 +3635,13 @@
         <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>26</v>
@@ -3689,28 +3689,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -3746,7 +3746,7 @@
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>9.5</v>
@@ -3764,7 +3764,7 @@
         <v>7.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
@@ -3776,7 +3776,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -3843,7 +3843,7 @@
         <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -3936,7 +3936,7 @@
         <v>41</v>
       </c>
       <c r="AO24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3975,10 +3975,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>3.1</v>
@@ -3993,40 +3993,40 @@
         <v>3.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S25" t="n">
         <v>4.33</v>
       </c>
       <c r="T25" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
@@ -4059,7 +4059,7 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>15</v>
@@ -4116,13 +4116,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J26" t="n">
         <v>2.5</v>
@@ -4131,16 +4131,16 @@
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
         <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
         <v>3.5</v>
@@ -4155,7 +4155,7 @@
         <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U26" t="n">
         <v>1.4</v>
@@ -4164,16 +4164,16 @@
         <v>2.75</v>
       </c>
       <c r="W26" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X26" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
@@ -4206,7 +4206,7 @@
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>41</v>
@@ -4257,22 +4257,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
         <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.02</v>
       </c>
       <c r="L27" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
@@ -4280,19 +4280,19 @@
         <v>1.28</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R27" t="n">
         <v>1.78</v>
       </c>
       <c r="S27" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="T27" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U27" t="n">
         <v>1.42</v>
@@ -4307,16 +4307,16 @@
         <v>1.98</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
         <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC27" t="n">
         <v>17</v>
@@ -4325,7 +4325,7 @@
         <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
         <v>6.2</v>
@@ -4337,10 +4337,10 @@
         <v>55</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
         <v>11.25</v>
@@ -4349,13 +4349,13 @@
         <v>45</v>
       </c>
       <c r="AM27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO27" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4400,7 +4400,7 @@
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>4.75</v>
@@ -4409,7 +4409,7 @@
         <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M28" t="n">
         <v>1.11</v>
@@ -4424,10 +4424,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="n">
         <v>4.4</v>
@@ -4448,10 +4448,10 @@
         <v>1.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA28" t="n">
         <v>15</v>
@@ -4466,19 +4466,19 @@
         <v>51</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ28" t="n">
         <v>8.5</v>
@@ -4490,7 +4490,7 @@
         <v>17</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
         <v>41</v>
@@ -4499,10 +4499,10 @@
         <v>101</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4551,7 +4551,7 @@
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L29" t="n">
         <v>3.5</v>
@@ -4684,28 +4684,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="H30" t="n">
         <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L30" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -4738,22 +4738,22 @@
         <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -4768,22 +4768,22 @@
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>151</v>
@@ -4833,46 +4833,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
         <v>4.5</v>
       </c>
       <c r="J31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K31" t="n">
         <v>2.38</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.3</v>
       </c>
       <c r="L31" t="n">
         <v>4.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U31" t="n">
         <v>1.33</v>
@@ -4887,7 +4887,7 @@
         <v>2.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z31" t="n">
         <v>9</v>
@@ -4902,13 +4902,13 @@
         <v>13</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -4926,7 +4926,7 @@
         <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H32" t="n">
         <v>3.1</v>
@@ -4989,7 +4989,7 @@
         <v>1.91</v>
       </c>
       <c r="L32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M32" t="n">
         <v>1.13</v>
@@ -5046,7 +5046,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
@@ -5058,7 +5058,7 @@
         <v>101</v>
       </c>
       <c r="AI32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ32" t="n">
         <v>23</v>
@@ -5073,7 +5073,7 @@
         <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO32" t="n">
         <v>101</v>
@@ -5115,34 +5115,34 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K33" t="n">
         <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
         <v>2.25</v>
@@ -5205,7 +5205,7 @@
         <v>21</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
         <v>51</v>
@@ -5214,7 +5214,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO33" t="n">
         <v>351</v>
@@ -5256,13 +5256,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H34" t="n">
         <v>5.25</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
         <v>1.73</v>
@@ -5304,10 +5304,10 @@
         <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y34" t="n">
         <v>6</v>
@@ -5319,7 +5319,7 @@
         <v>9.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC34" t="n">
         <v>13</v>
@@ -5334,7 +5334,7 @@
         <v>10</v>
       </c>
       <c r="AG34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH34" t="n">
         <v>101</v>
@@ -5397,10 +5397,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -5502,10 +5502,10 @@
         <v>101</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5542,13 +5542,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
         <v>3.2</v>
@@ -5560,28 +5560,28 @@
         <v>3.6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N36" t="n">
         <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
         <v>3.75</v>
       </c>
       <c r="T36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U36" t="n">
         <v>1.44</v>
@@ -5596,10 +5596,10 @@
         <v>1.83</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
         <v>10</v>
@@ -5620,7 +5620,7 @@
         <v>5.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>51</v>
@@ -5635,13 +5635,13 @@
         <v>12</v>
       </c>
       <c r="AL36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
         <v>26</v>
       </c>
       <c r="AN36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO36" t="n">
         <v>251</v>
@@ -5687,31 +5687,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L37" t="n">
         <v>3.2</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
         <v>2.5</v>
@@ -5723,10 +5723,10 @@
         <v>1.48</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T37" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="U37" t="n">
         <v>1.57</v>
@@ -5735,25 +5735,25 @@
         <v>2.25</v>
       </c>
       <c r="W37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z37" t="n">
         <v>15</v>
       </c>
       <c r="AA37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD37" t="n">
         <v>41</v>
@@ -5765,22 +5765,22 @@
         <v>6</v>
       </c>
       <c r="AG37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK37" t="n">
         <v>10</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
         <v>23</v>
@@ -5792,10 +5792,10 @@
         <v>301</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5850,16 +5850,16 @@
         <v>4.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>7.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q38" t="n">
         <v>2.35</v>
@@ -5871,7 +5871,7 @@
         <v>4.33</v>
       </c>
       <c r="T38" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U38" t="n">
         <v>1.53</v>
@@ -5937,10 +5937,10 @@
         <v>1000</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
@@ -6117,67 +6117,67 @@
         <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
         <v>2.63</v>
       </c>
       <c r="K40" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L40" t="n">
         <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V40" t="n">
         <v>3</v>
       </c>
-      <c r="T40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X40" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA40" t="n">
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
         <v>15</v>
@@ -6186,7 +6186,7 @@
         <v>23</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>7</v>
@@ -6213,7 +6213,7 @@
         <v>26</v>
       </c>
       <c r="AN40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO40" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS40"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1451,7 +1451,7 @@
         <v>1.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1733,7 +1733,7 @@
         <v>1.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
         <v>2.1</v>
@@ -1874,7 +1874,7 @@
         <v>1.11</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V10" t="n">
         <v>2.1</v>
@@ -1973,13 +1973,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
@@ -2030,7 +2030,7 @@
         <v>4.33</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2060,13 +2060,13 @@
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
@@ -2273,13 +2273,13 @@
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
         <v>5.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P13" t="n">
         <v>2.25</v>
@@ -2294,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U13" t="n">
         <v>1.62</v>
@@ -2422,13 +2422,13 @@
         <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2443,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2515,10 +2515,10 @@
         <v>2.1</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="15">
@@ -2571,16 +2571,16 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
         <v>2.35</v>
@@ -2592,7 +2592,7 @@
         <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U15" t="n">
         <v>1.5</v>
@@ -2673,7 +2673,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>j5Pbp8c2</t>
+          <t>UeA3Kyqf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2683,128 +2683,128 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="V16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y16" t="n">
         <v>6.5</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="X16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>5.2</v>
-      </c>
       <c r="Z16" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI16" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB16" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>175</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AO16" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2814,7 +2814,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UeA3Kyqf</t>
+          <t>GQmpXESa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2834,70 +2834,70 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.1</v>
       </c>
       <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.1</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.75</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="T17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y17" t="n">
         <v>7.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>7</v>
       </c>
       <c r="Z17" t="n">
         <v>11</v>
@@ -2915,19 +2915,19 @@
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -2936,16 +2936,16 @@
         <v>12</v>
       </c>
       <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
         <v>34</v>
       </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>41</v>
-      </c>
       <c r="AO17" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2955,7 +2955,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GQmpXESa</t>
+          <t>xtxgVhcC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2965,7 +2965,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2975,118 +2975,118 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.05</v>
       </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="U18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>8.5</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>11</v>
-      </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN18" t="n">
         <v>23</v>
       </c>
-      <c r="AN18" t="n">
-        <v>34</v>
-      </c>
       <c r="AO18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>xtxgVhcC</t>
+          <t>Cv2KGgrJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3116,118 +3116,118 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.25</v>
       </c>
-      <c r="L19" t="n">
+      <c r="R19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.5</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="W19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z19" t="n">
         <v>13</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>21</v>
-      </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD19" t="n">
         <v>41</v>
       </c>
-      <c r="AC19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>34</v>
-      </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3237,7 +3237,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cv2KGgrJ</t>
+          <t>OIVxZzbm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3257,118 +3257,118 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN20" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3378,7 +3378,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>OIVxZzbm</t>
+          <t>GC8BIFD6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3398,118 +3398,118 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>13</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="U21" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="Y21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z21" t="n">
         <v>11</v>
       </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="n">
         <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AF21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO21" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
@@ -3519,7 +3519,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GC8BIFD6</t>
+          <t>dp9JoEsg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3539,31 +3539,31 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3572,95 +3572,99 @@
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V22" t="n">
         <v>2.25</v>
       </c>
-      <c r="R22" t="n">
+      <c r="W22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X22" t="n">
         <v>1.62</v>
       </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
         <v>21</v>
       </c>
       <c r="AD22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
         <v>34</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>26</v>
       </c>
       <c r="AN22" t="n">
         <v>41</v>
       </c>
       <c r="AO22" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.98</v>
+      </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dp9JoEsg</t>
+          <t>4Yl6vczQ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3680,109 +3684,109 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.95</v>
       </c>
-      <c r="L23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N23" t="n">
+      <c r="S23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z23" t="n">
         <v>8</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF23" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF23" t="n">
-        <v>7</v>
-      </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM23" t="n">
         <v>34</v>
@@ -3791,21 +3795,17 @@
         <v>41</v>
       </c>
       <c r="AO23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1.98</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4Yl6vczQ</t>
+          <t>p6u1TWRO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3825,91 +3825,91 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
         <v>1.73</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>11</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.83</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
         <v>17</v>
@@ -3918,25 +3918,25 @@
         <v>51</v>
       </c>
       <c r="AI24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
         <v>12</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>15</v>
-      </c>
       <c r="AL24" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
         <v>41</v>
       </c>
       <c r="AO24" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
@@ -3946,7 +3946,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>p6u1TWRO</t>
+          <t>OWABmzDt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3966,118 +3966,118 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="J25" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V25" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
       </c>
       <c r="Z25" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AA25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE25" t="n">
         <v>10</v>
       </c>
-      <c r="AB25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="n">
         <v>15</v>
       </c>
-      <c r="AK25" t="n">
-        <v>12</v>
-      </c>
       <c r="AL25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM25" t="n">
         <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>29</v>
       </c>
       <c r="AN25" t="n">
         <v>41</v>
       </c>
       <c r="AO25" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4087,7 +4087,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>OWABmzDt</t>
+          <t>p8hIHfSN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4097,128 +4097,124 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="I26" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
-        <v>11</v>
-      </c>
+        <v>3.85</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="T26" t="n">
         <v>1.3</v>
       </c>
       <c r="U26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V26" t="n">
-        <v>2.75</v>
+        <v>2.47</v>
       </c>
       <c r="W26" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="X26" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN26" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AO26" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4228,7 +4224,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>p8hIHfSN</t>
+          <t>bHebbBrg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4238,134 +4234,142 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>2.88</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5.8</v>
+      </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="S27" t="n">
-        <v>2.92</v>
+        <v>4.4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="U27" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="V27" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="W27" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="X27" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="Y27" t="n">
         <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE27" t="n">
+      <c r="AK27" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AL27" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AO27" t="n">
-        <v>450</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.9</v>
+      </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>bHebbBrg</t>
+          <t>29hFfTsI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4375,7 +4379,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4385,37 +4389,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.75</v>
       </c>
-      <c r="H28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K28" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -4427,46 +4431,46 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="U28" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="W28" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD28" t="n">
         <v>41</v>
       </c>
-      <c r="AC28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>51</v>
-      </c>
       <c r="AE28" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4478,25 +4482,25 @@
         <v>81</v>
       </c>
       <c r="AI28" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
         <v>41</v>
       </c>
       <c r="AO28" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AP28" t="n">
         <v>1.9</v>
@@ -4510,7 +4514,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29hFfTsI</t>
+          <t>4rG6fLKa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4520,83 +4524,83 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X29" t="n">
         <v>2.2</v>
       </c>
-      <c r="X29" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Y29" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA29" t="n">
         <v>11</v>
@@ -4605,57 +4609,61 @@
         <v>29</v>
       </c>
       <c r="AC29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>6.5</v>
       </c>
       <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL29" t="n">
         <v>21</v>
       </c>
-      <c r="AH29" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>26</v>
-      </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AN29" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>1250</v>
+        <v>151</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.9</v>
+        <v>1.41</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
+        <v>2.95</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>4rG6fLKa</t>
+          <t>fTpTKcL0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4665,146 +4673,138 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.85</v>
+        <v>1.73</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="L30" t="n">
-        <v>2.87</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
+        <v>15</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC30" t="n">
         <v>13</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>21</v>
       </c>
-      <c r="AD30" t="n">
-        <v>29</v>
-      </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
         <v>151</v>
       </c>
-      <c r="AP30" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>1.56</v>
-      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>fTpTKcL0</t>
+          <t>MaM5HOE8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -4824,118 +4824,118 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>1.91</v>
       </c>
       <c r="L31" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="P31" t="n">
-        <v>4.33</v>
+        <v>2.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.67</v>
+        <v>2.88</v>
       </c>
       <c r="R31" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="U31" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>3.25</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA31" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ31" t="n">
         <v>23</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>51</v>
       </c>
       <c r="AM31" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN31" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AO31" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4945,7 +4945,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MaM5HOE8</t>
+          <t>tQKg6b67</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4965,118 +4965,118 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L32" t="n">
         <v>5</v>
       </c>
-      <c r="J32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M32" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
+        <v>8</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y32" t="n">
         <v>6</v>
       </c>
-      <c r="O32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S32" t="n">
-        <v>6</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>5</v>
-      </c>
       <c r="Z32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
       </c>
       <c r="AC32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>21</v>
       </c>
-      <c r="AD32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>23</v>
-      </c>
       <c r="AK32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="n">
         <v>51</v>
       </c>
       <c r="AM32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
         <v>51</v>
       </c>
       <c r="AO32" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5086,7 +5086,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tQKg6b67</t>
+          <t>0UiKMJjl</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5106,118 +5106,118 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.81</v>
+        <v>1.27</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>1.73</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M33" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.36</v>
       </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.22</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="V33" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="X33" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="Y33" t="n">
         <v>6</v>
       </c>
       <c r="Z33" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
         <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AF33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AH33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AO33" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
@@ -5227,7 +5227,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0UiKMJjl</t>
+          <t>Uo1lSuTQ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -5247,128 +5247,132 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.24</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.83</v>
+        <v>2.7</v>
       </c>
       <c r="R34" t="n">
-        <v>2.03</v>
+        <v>1.44</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="U34" t="n">
-        <v>1.36</v>
+        <v>1.62</v>
       </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="W34" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="X34" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Y34" t="n">
         <v>6</v>
       </c>
       <c r="Z34" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI34" t="n">
         <v>7</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AJ34" t="n">
         <v>13</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AK34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL34" t="n">
         <v>34</v>
       </c>
-      <c r="AE34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG34" t="n">
+      <c r="AM34" t="n">
         <v>29</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AN34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO34" t="n">
         <v>101</v>
       </c>
-      <c r="AI34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>151</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
+      <c r="AP34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uo1lSuTQ</t>
+          <t>Cf6CH39N</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5378,142 +5382,142 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
-        <v>2.85</v>
+        <v>2.88</v>
       </c>
       <c r="I35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N35" t="n">
+        <v>8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Q35" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T35" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V35" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="Y35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
         <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AJ35" t="n">
         <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN35" t="n">
         <v>34</v>
       </c>
-      <c r="AM35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>41</v>
-      </c>
       <c r="AO35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cf6CH39N</t>
+          <t>vFJS4Zr1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5523,7 +5527,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -5533,132 +5537,132 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P36" t="n">
         <v>2.5</v>
       </c>
-      <c r="H36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N36" t="n">
-        <v>8</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
       <c r="Q36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W36" t="n">
         <v>2.2</v>
       </c>
-      <c r="R36" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X36" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="Y36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AA36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK36" t="n">
         <v>10</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AL36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM36" t="n">
         <v>23</v>
       </c>
-      <c r="AC36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>26</v>
-      </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO36" t="n">
-        <v>251</v>
-      </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>1.8</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vFJS4Zr1</t>
+          <t>YNZgUtgT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5668,7 +5672,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -5678,124 +5682,124 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="H37" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="K37" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M37" t="n">
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
+        <v>8</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF37" t="n">
         <v>6.5</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>6</v>
       </c>
       <c r="AG37" t="n">
         <v>19</v>
       </c>
       <c r="AH37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI37" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AK37" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL37" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="n">
         <v>41</v>
       </c>
       <c r="AO37" t="n">
-        <v>301</v>
+        <v>1000</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
@@ -5803,7 +5807,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>YNZgUtgT</t>
+          <t>0tU9IwkL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5813,417 +5817,135 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J38" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.35</v>
+        <v>1.9</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="S38" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T38" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="U38" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="V38" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="X38" t="n">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="Y38" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA38" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>19</v>
       </c>
-      <c r="AC38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>17</v>
-      </c>
       <c r="AK38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL38" t="n">
         <v>41</v>
       </c>
       <c r="AM38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN38" t="n">
         <v>34</v>
       </c>
-      <c r="AN38" t="n">
-        <v>41</v>
-      </c>
       <c r="AO38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>YeVTQKCl</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>URUGUAY - SEGUNDA DIVISION</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Albion</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Uruguay Montevideo</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>37</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>37</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>700</v>
-      </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>0tU9IwkL</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Austin FC</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>San Diego FC</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N40" t="n">
-        <v>11</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS40" t="n">
+      <c r="AS38" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -722,22 +722,22 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W2" t="n">
         <v>2.63</v>
@@ -908,7 +908,7 @@
         <v>5.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG3" t="n">
         <v>29</v>
@@ -917,7 +917,7 @@
         <v>126</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -926,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -996,10 +996,10 @@
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.67</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
@@ -1138,13 +1138,13 @@
         <v>1.73</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1177,7 +1177,7 @@
         <v>1.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1195,7 +1195,7 @@
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF5" t="n">
         <v>6.5</v>
@@ -1210,10 +1210,10 @@
         <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>34</v>
@@ -1264,16 +1264,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
@@ -1282,10 +1282,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.73</v>
@@ -1339,13 +1339,13 @@
         <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="n">
         <v>7</v>
@@ -1451,7 +1451,7 @@
         <v>1.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
         <v>2.1</v>
@@ -1571,13 +1571,13 @@
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
         <v>3.4</v>
@@ -1733,7 +1733,7 @@
         <v>1.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
         <v>2.1</v>
@@ -1832,16 +1832,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.8</v>
@@ -1874,7 +1874,7 @@
         <v>1.11</v>
       </c>
       <c r="U10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
         <v>2.1</v>
@@ -1892,16 +1892,16 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC10" t="n">
         <v>29</v>
       </c>
       <c r="AD10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE10" t="n">
         <v>5</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>2.88</v>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>2.9</v>
@@ -2264,7 +2264,7 @@
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>1.83</v>
@@ -2312,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>26</v>
@@ -2702,61 +2702,61 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="n">
         <v>10</v>
@@ -2765,31 +2765,31 @@
         <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>12</v>
@@ -2804,7 +2804,7 @@
         <v>41</v>
       </c>
       <c r="AO16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -2843,52 +2843,52 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>3.6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.83</v>
@@ -2900,22 +2900,22 @@
         <v>7.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>10</v>
       </c>
       <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
         <v>23</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>21</v>
       </c>
       <c r="AD17" t="n">
         <v>34</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF17" t="n">
         <v>6</v>
@@ -2927,13 +2927,13 @@
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
@@ -2945,7 +2945,7 @@
         <v>34</v>
       </c>
       <c r="AO17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2984,22 +2984,22 @@
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.7</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I18" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3014,16 +3014,16 @@
         <v>3.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
         <v>1.36</v>
@@ -3038,13 +3038,13 @@
         <v>2</v>
       </c>
       <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA18" t="n">
         <v>12</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>13</v>
       </c>
       <c r="AB18" t="n">
         <v>41</v>
@@ -3056,10 +3056,10 @@
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -3071,19 +3071,19 @@
         <v>8</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>201</v>
@@ -3125,22 +3125,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3158,7 +3158,7 @@
         <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>4</v>
@@ -3179,19 +3179,19 @@
         <v>1.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
         <v>29</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>26</v>
       </c>
       <c r="AD19" t="n">
         <v>41</v>
@@ -3203,22 +3203,22 @@
         <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
         <v>21</v>
@@ -3266,22 +3266,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3290,16 +3290,16 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
         <v>3.25</v>
@@ -3323,16 +3323,16 @@
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD20" t="n">
         <v>34</v>
@@ -3347,22 +3347,22 @@
         <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
         <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN20" t="n">
         <v>26</v>
@@ -3407,16 +3407,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -3425,13 +3425,13 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
         <v>2.75</v>
@@ -3443,10 +3443,10 @@
         <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T21" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="U21" t="n">
         <v>1.5</v>
@@ -3455,10 +3455,10 @@
         <v>2.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="Y21" t="n">
         <v>7</v>
@@ -3479,7 +3479,7 @@
         <v>34</v>
       </c>
       <c r="AE21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
@@ -3494,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>11</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>26</v>
@@ -3572,22 +3572,22 @@
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -3653,10 +3653,10 @@
         <v>101</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3693,22 +3693,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -3723,10 +3723,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>3.25</v>
@@ -3741,22 +3741,22 @@
         <v>2.75</v>
       </c>
       <c r="W23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
         <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
         <v>15</v>
@@ -3768,7 +3768,7 @@
         <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
         <v>17</v>
@@ -3777,16 +3777,16 @@
         <v>51</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>34</v>
@@ -3837,13 +3837,13 @@
         <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
         <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -3852,40 +3852,40 @@
         <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
         <v>7</v>
@@ -3906,19 +3906,19 @@
         <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>15</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN24" t="n">
         <v>41</v>
@@ -3938,8 +3938,12 @@
       <c r="AO24" t="n">
         <v>351</v>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+      <c r="AP24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
     </row>
@@ -3975,22 +3979,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3999,16 +4003,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>3.25</v>
@@ -4017,40 +4021,40 @@
         <v>1.33</v>
       </c>
       <c r="U25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
         <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
         <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG25" t="n">
         <v>15</v>
@@ -4059,19 +4063,19 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
       </c>
       <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
         <v>41</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>34</v>
       </c>
       <c r="AN25" t="n">
         <v>41</v>
@@ -4116,105 +4120,105 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S26" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Y26" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF26" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AM26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN26" t="n">
         <v>29</v>
       </c>
-      <c r="AN26" t="n">
-        <v>35</v>
-      </c>
       <c r="AO26" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4358,10 +4362,10 @@
         <v>101</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4692,19 +4696,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
         <v>2.3</v>
       </c>
       <c r="K30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L30" t="n">
         <v>4.5</v>
@@ -4749,7 +4753,7 @@
         <v>8.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA30" t="n">
         <v>8.5</v>
@@ -4785,7 +4789,7 @@
         <v>15</v>
       </c>
       <c r="AL30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
         <v>34</v>
@@ -4974,61 +4978,61 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
         <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X32" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z32" t="n">
         <v>8</v>
@@ -5043,28 +5047,28 @@
         <v>17</v>
       </c>
       <c r="AD32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG32" t="n">
         <v>17</v>
       </c>
       <c r="AH32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="n">
         <v>11</v>
       </c>
       <c r="AJ32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL32" t="n">
         <v>51</v>
@@ -5073,7 +5077,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO32" t="n">
         <v>351</v>
@@ -5115,13 +5119,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H33" t="n">
         <v>5.25</v>
       </c>
       <c r="I33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
         <v>1.73</v>
@@ -5130,31 +5134,31 @@
         <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U33" t="n">
         <v>1.33</v>
@@ -5163,16 +5167,16 @@
         <v>3.25</v>
       </c>
       <c r="W33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z33" t="n">
         <v>6</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>5.5</v>
       </c>
       <c r="AA33" t="n">
         <v>9.5</v>
@@ -5199,22 +5203,22 @@
         <v>81</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ33" t="n">
         <v>51</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM33" t="n">
         <v>81</v>
       </c>
       <c r="AN33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO33" t="n">
         <v>301</v>
@@ -5361,10 +5365,10 @@
         <v>101</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
@@ -5401,16 +5405,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H35" t="n">
         <v>2.88</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>2.05</v>
@@ -5422,7 +5426,7 @@
         <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.36</v>
@@ -5443,7 +5447,7 @@
         <v>1.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V35" t="n">
         <v>2.5</v>
@@ -5473,7 +5477,7 @@
         <v>34</v>
       </c>
       <c r="AE35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF35" t="n">
         <v>5.5</v>
@@ -5485,13 +5489,13 @@
         <v>51</v>
       </c>
       <c r="AI35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL35" t="n">
         <v>29</v>
@@ -5570,16 +5574,16 @@
         <v>6.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
         <v>5.5</v>
@@ -5651,10 +5655,10 @@
         <v>301</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -1002,16 +1002,16 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>6.5</v>
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
         <v>1.73</v>
@@ -1144,7 +1144,7 @@
         <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.8</v>
@@ -1153,40 +1153,40 @@
         <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y5" t="n">
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
         <v>34</v>
@@ -1198,7 +1198,7 @@
         <v>4.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
         <v>26</v>
@@ -1210,16 +1210,16 @@
         <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>13</v>
       </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
         <v>34</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>51</v>
@@ -2114,13 +2114,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
         <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2129,13 +2129,13 @@
         <v>1.8</v>
       </c>
       <c r="L12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.67</v>
@@ -2198,7 +2198,7 @@
         <v>101</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>17</v>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H13" t="n">
         <v>2.9</v>
@@ -2264,7 +2264,7 @@
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>1.83</v>
@@ -2312,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
         <v>26</v>
@@ -2339,7 +2339,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -4553,22 +4553,22 @@
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4640,7 +4640,7 @@
         <v>9.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
         <v>17</v>
@@ -4696,28 +4696,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O30" t="n">
         <v>1.2</v>
@@ -4726,10 +4726,10 @@
         <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S30" t="n">
         <v>2.63</v>
@@ -4744,13 +4744,13 @@
         <v>3.25</v>
       </c>
       <c r="W30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>9.5</v>
@@ -4771,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4786,13 +4786,13 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>41</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>34</v>
@@ -4978,10 +4978,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
         <v>4.75</v>
@@ -4993,31 +4993,31 @@
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R32" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U32" t="n">
         <v>1.44</v>
@@ -5026,43 +5026,43 @@
         <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
         <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
         <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
         <v>6.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH32" t="n">
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ32" t="n">
         <v>23</v>
@@ -5080,7 +5080,7 @@
         <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5119,85 +5119,85 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H33" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S33" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z33" t="n">
         <v>6</v>
       </c>
       <c r="AA33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
         <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH33" t="n">
         <v>81</v>
@@ -5206,7 +5206,7 @@
         <v>21</v>
       </c>
       <c r="AJ33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="n">
         <v>29</v>
@@ -5215,7 +5215,7 @@
         <v>126</v>
       </c>
       <c r="AM33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN33" t="n">
         <v>67</v>
@@ -5260,28 +5260,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
         <v>1.91</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
         <v>1.53</v>
@@ -5314,19 +5314,19 @@
         <v>1.62</v>
       </c>
       <c r="Y34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB34" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD34" t="n">
         <v>41</v>
@@ -5338,28 +5338,28 @@
         <v>6</v>
       </c>
       <c r="AG34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
         <v>81</v>
       </c>
       <c r="AI34" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
         <v>13</v>
       </c>
-      <c r="AK34" t="n">
-        <v>12</v>
-      </c>
       <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
         <v>34</v>
       </c>
-      <c r="AM34" t="n">
-        <v>29</v>
-      </c>
       <c r="AN34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO34" t="n">
         <v>101</v>
@@ -5408,61 +5408,61 @@
         <v>2.55</v>
       </c>
       <c r="H35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3</v>
       </c>
       <c r="J35" t="n">
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.2</v>
+        <v>2.03</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="X35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
         <v>10</v>
@@ -5474,40 +5474,40 @@
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE35" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AF35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG35" t="n">
         <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ35" t="n">
         <v>15</v>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL35" t="n">
         <v>29</v>
       </c>
       <c r="AM35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN35" t="n">
         <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP35" t="inlineStr"/>
       <c r="AQ35" t="inlineStr"/>
@@ -5550,13 +5550,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -5565,7 +5565,7 @@
         <v>1.91</v>
       </c>
       <c r="L36" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36" t="n">
         <v>1.11</v>
@@ -5592,10 +5592,10 @@
         <v>1.14</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
         <v>2.2</v>
@@ -5604,25 +5604,25 @@
         <v>1.62</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB36" t="n">
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD36" t="n">
         <v>41</v>
       </c>
       <c r="AE36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF36" t="n">
         <v>6</v>
@@ -5631,22 +5631,22 @@
         <v>19</v>
       </c>
       <c r="AH36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL36" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN36" t="n">
         <v>41</v>
@@ -5695,19 +5695,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L37" t="n">
         <v>4.33</v>
@@ -5716,7 +5716,7 @@
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5743,10 +5743,10 @@
         <v>2.38</v>
       </c>
       <c r="W37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X37" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y37" t="n">
         <v>6</v>
@@ -5761,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD37" t="n">
         <v>34</v>
@@ -5840,22 +5840,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="n">
         <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5882,22 +5882,22 @@
         <v>1.33</v>
       </c>
       <c r="U38" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W38" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
@@ -5909,40 +5909,40 @@
         <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF38" t="n">
         <v>7</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ38" t="n">
         <v>19</v>
       </c>
       <c r="AK38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL38" t="n">
         <v>41</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
         <v>34</v>
       </c>
       <c r="AO38" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -710,13 +710,13 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
         <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -731,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
         <v>1.78</v>
@@ -851,13 +851,13 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P3" t="n">
         <v>2.1</v>
@@ -872,7 +872,7 @@
         <v>6.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -990,7 +990,7 @@
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
@@ -1008,10 +1008,10 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S4" t="n">
         <v>6.5</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
         <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
         <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1153,22 +1153,22 @@
         <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W5" t="n">
         <v>2.63</v>
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I6" t="n">
         <v>3.75</v>
@@ -1297,7 +1297,7 @@
         <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
         <v>7</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
@@ -1439,10 +1439,10 @@
         <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>6</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
         <v>3.7</v>
@@ -1583,7 +1583,7 @@
         <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>7</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -1724,13 +1724,13 @@
         <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="U9" t="n">
         <v>1.67</v>
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H10" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I10" t="n">
         <v>3.4</v>
@@ -1844,7 +1844,7 @@
         <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L10" t="n">
         <v>4.33</v>
@@ -1880,10 +1880,10 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.5</v>
@@ -1973,19 +1973,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L11" t="n">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
         <v>4.33</v>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I12" t="n">
         <v>3.9</v>
@@ -2126,16 +2126,16 @@
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.67</v>
@@ -2165,7 +2165,7 @@
         <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
@@ -2255,7 +2255,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H13" t="n">
         <v>2.9</v>
@@ -2264,7 +2264,7 @@
         <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>1.83</v>
@@ -2312,13 +2312,13 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
         <v>26</v>
@@ -2339,7 +2339,7 @@
         <v>81</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -2658,10 +2658,10 @@
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AR15" t="n">
         <v>3.6</v>
@@ -4290,7 +4290,7 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
         <v>4.4</v>
@@ -4402,13 +4402,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J28" t="n">
         <v>3.75</v>
@@ -4423,7 +4423,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -4453,7 +4453,7 @@
         <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y28" t="n">
         <v>6.5</v>
@@ -4468,13 +4468,13 @@
         <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD28" t="n">
         <v>41</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>6.5</v>
@@ -4495,10 +4495,10 @@
         <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
         <v>41</v>
@@ -4547,7 +4547,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
@@ -4595,7 +4595,7 @@
         <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="X29" t="n">
         <v>2.2</v>
@@ -4634,7 +4634,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>9.5</v>
@@ -4643,10 +4643,10 @@
         <v>23</v>
       </c>
       <c r="AM29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
         <v>151</v>
@@ -4696,16 +4696,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H30" t="n">
         <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.3</v>
@@ -4726,10 +4726,10 @@
         <v>4.33</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S30" t="n">
         <v>2.63</v>
@@ -4753,16 +4753,16 @@
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA30" t="n">
         <v>8.5</v>
       </c>
       <c r="AB30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC30" t="n">
         <v>15</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>13</v>
       </c>
       <c r="AD30" t="n">
         <v>21</v>
@@ -4780,10 +4780,10 @@
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
@@ -4837,19 +4837,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L31" t="n">
         <v>5.5</v>
@@ -4894,7 +4894,7 @@
         <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA31" t="n">
         <v>10</v>
@@ -4924,7 +4924,7 @@
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>19</v>
@@ -4978,28 +4978,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
         <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
         <v>1.3</v>
@@ -5008,16 +5008,16 @@
         <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U32" t="n">
         <v>1.44</v>
@@ -5035,16 +5035,16 @@
         <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
         <v>29</v>
@@ -5053,7 +5053,7 @@
         <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5062,25 +5062,25 @@
         <v>51</v>
       </c>
       <c r="AI32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ32" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN32" t="n">
         <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
@@ -5119,43 +5119,43 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="n">
         <v>2.38</v>
       </c>
       <c r="L33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P33" t="n">
         <v>3.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
         <v>1.33</v>
@@ -5167,13 +5167,13 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X33" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z33" t="n">
         <v>6</v>
@@ -5182,37 +5182,37 @@
         <v>9</v>
       </c>
       <c r="AB33" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
         <v>10</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
         <v>41</v>
       </c>
       <c r="AK33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM33" t="n">
         <v>67</v>
@@ -5278,16 +5278,16 @@
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q34" t="n">
         <v>2.7</v>
@@ -5299,7 +5299,7 @@
         <v>5.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U34" t="n">
         <v>1.62</v>
@@ -5405,16 +5405,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
         <v>2.9</v>
       </c>
-      <c r="I35" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.1</v>
@@ -5435,22 +5435,22 @@
         <v>3.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W35" t="n">
         <v>1.73</v>
@@ -5462,13 +5462,13 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA35" t="n">
         <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
@@ -5716,7 +5716,7 @@
         <v>1.08</v>
       </c>
       <c r="N37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5864,16 +5864,16 @@
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R38" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.95</v>
       </c>
       <c r="S38" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS38"/>
+  <dimension ref="A1:AS32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,34 +710,34 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
         <v>2.63</v>
@@ -851,13 +851,13 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>2.1</v>
@@ -872,7 +872,7 @@
         <v>6.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -981,7 +981,7 @@
         <v>1.73</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>5.25</v>
@@ -990,16 +990,16 @@
         <v>2.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1008,10 +1008,10 @@
         <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>6.5</v>
@@ -1032,10 +1032,10 @@
         <v>1.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1059,13 +1059,13 @@
         <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1077,7 +1077,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
@@ -1094,7 +1094,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dC3XkXIF</t>
+          <t>pvwPOfKG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1114,31 +1114,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1147,28 +1147,28 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="W5" t="n">
         <v>2.63</v>
@@ -1177,25 +1177,25 @@
         <v>1.44</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
@@ -1207,19 +1207,19 @@
         <v>126</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>51</v>
@@ -1227,15 +1227,19 @@
       <c r="AO5" t="n">
         <v>101</v>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pvwPOfKG</t>
+          <t>SvpXQPqm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1245,7 +1249,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1255,100 +1259,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Y6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1368,19 +1372,15 @@
       <c r="AO6" t="n">
         <v>101</v>
       </c>
-      <c r="AP6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>1.78</v>
-      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SvpXQPqm</t>
+          <t>ln0Pigl3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1400,31 +1400,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1433,58 +1433,58 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.87</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="X7" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
@@ -1493,10 +1493,10 @@
         <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1521,7 +1521,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ln0Pigl3</t>
+          <t>0hruP3Ea</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1541,37 +1541,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O8" t="n">
         <v>1.73</v>
@@ -1580,40 +1580,40 @@
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>29</v>
@@ -1634,10 +1634,10 @@
         <v>101</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1662,7 +1662,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0hruP3Ea</t>
+          <t>Gn1F8rUI</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1682,25 +1682,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -1709,10 +1709,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1.67</v>
@@ -1724,7 +1724,7 @@
         <v>3.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
         <v>6.5</v>
@@ -1739,10 +1739,10 @@
         <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
@@ -1760,34 +1760,34 @@
         <v>29</v>
       </c>
       <c r="AD9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF9" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
         <v>51</v>
@@ -1803,7 +1803,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gn1F8rUI</t>
+          <t>8f30WoMP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1823,115 +1823,115 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Gimnasia y Tiro</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y10" t="n">
         <v>4.33</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC10" t="n">
         <v>26</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>51</v>
       </c>
       <c r="AE10" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>21</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
         <v>81</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>51</v>
       </c>
       <c r="AO10" t="n">
         <v>101</v>
@@ -1944,7 +1944,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8f30WoMP</t>
+          <t>YwIxUkdd</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1964,73 +1964,73 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gimnasia y Tiro</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.96</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y11" t="n">
         <v>5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L11" t="n">
-        <v>6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S11" t="n">
-        <v>9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>4.33</v>
-      </c>
       <c r="Z11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2039,40 +2039,40 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>51</v>
       </c>
       <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
         <v>51</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>81</v>
       </c>
       <c r="AO11" t="n">
         <v>101</v>
@@ -2085,7 +2085,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YwIxUkdd</t>
+          <t>A90ggWlf</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2095,138 +2095,146 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Colon Santa Fe</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
-        <v>2.82</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>6.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.1</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="W12" t="n">
         <v>2.5</v>
       </c>
       <c r="X12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AC12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
         <v>101</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IZ31iAJ6</t>
+          <t>xtxgVhcC</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2236,146 +2244,138 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.88</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="W13" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="X13" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>10</v>
       </c>
-      <c r="AA13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AK13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN13" t="n">
         <v>26</v>
       </c>
-      <c r="AD13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>51</v>
-      </c>
       <c r="AO13" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>1.19</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QJVj2RXO</t>
+          <t>OIVxZzbm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2385,101 +2385,101 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y14" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2488,43 +2488,35 @@
         <v>51</v>
       </c>
       <c r="AI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL14" t="n">
         <v>17</v>
       </c>
-      <c r="AK14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>1.31</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A90ggWlf</t>
+          <t>GC8BIFD6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2534,65 +2526,65 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U15" t="n">
         <v>1.5</v>
@@ -2601,79 +2593,71 @@
         <v>2.5</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="Y15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
         <v>7.5</v>
       </c>
       <c r="AF15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI15" t="n">
         <v>8</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
         <v>26</v>
       </c>
-      <c r="AH15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
       <c r="AN15" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>1.28</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UeA3Kyqf</t>
+          <t>dp9JoEsg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2683,7 +2667,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2693,19 +2677,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vegalta Sendai</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iwata</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -2714,52 +2698,52 @@
         <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="U16" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="X16" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="Y16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
         <v>9.5</v>
@@ -2768,53 +2752,57 @@
         <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
         <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>41</v>
       </c>
       <c r="AO16" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GQmpXESa</t>
+          <t>4Yl6vczQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2824,7 +2812,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01:15</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2834,118 +2822,118 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Renofa Yamaguchi</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Kumamoto</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.25</v>
       </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="U17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="V17" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y17" t="n">
         <v>7.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="n">
         <v>26</v>
       </c>
-      <c r="AC17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>34</v>
-      </c>
       <c r="AE17" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK17" t="n">
         <v>13</v>
       </c>
-      <c r="AK17" t="n">
-        <v>11</v>
-      </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2955,7 +2943,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>xtxgVhcC</t>
+          <t>p6u1TWRO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2975,128 +2963,132 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.25</v>
       </c>
-      <c r="P18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z18" t="n">
         <v>11</v>
       </c>
-      <c r="Z18" t="n">
-        <v>19</v>
-      </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN18" t="n">
         <v>41</v>
       </c>
-      <c r="AI18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>26</v>
-      </c>
       <c r="AO18" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cv2KGgrJ</t>
+          <t>OWABmzDt</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3116,118 +3108,118 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Iwaki</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J19" t="n">
         <v>2.3</v>
       </c>
-      <c r="J19" t="n">
-        <v>4</v>
-      </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="n">
         <v>8</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="AA19" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG19" t="n">
         <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO19" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3237,7 +3229,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OIVxZzbm</t>
+          <t>p8hIHfSN</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3247,128 +3239,124 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="I20" t="n">
-        <v>1.91</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.29</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="X20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="AB20" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN20" t="n">
         <v>29</v>
       </c>
-      <c r="AD20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>26</v>
-      </c>
       <c r="AO20" t="n">
-        <v>201</v>
+        <v>400</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3378,7 +3366,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GC8BIFD6</t>
+          <t>bHebbBrg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3388,138 +3376,142 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="S21" t="n">
-        <v>4.33</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="n">
         <v>7</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
         <v>41</v>
       </c>
       <c r="AO21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.95</v>
+      </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dp9JoEsg</t>
+          <t>29hFfTsI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3529,65 +3521,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -3602,19 +3594,19 @@
         <v>1.62</v>
       </c>
       <c r="Y22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AA22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD22" t="n">
         <v>41</v>
@@ -3623,7 +3615,7 @@
         <v>7.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG22" t="n">
         <v>21</v>
@@ -3632,31 +3624,31 @@
         <v>81</v>
       </c>
       <c r="AI22" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN22" t="n">
         <v>41</v>
       </c>
       <c r="AO22" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AQ22" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3664,7 +3656,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4Yl6vczQ</t>
+          <t>4rG6fLKa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3674,138 +3666,146 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="X23" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB23" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="n">
         <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM23" t="n">
         <v>21</v>
       </c>
-      <c r="AK23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>34</v>
-      </c>
       <c r="AN23" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>p6u1TWRO</t>
+          <t>fTpTKcL0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3815,142 +3815,138 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X24" t="n">
         <v>2</v>
       </c>
-      <c r="L24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="Y24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA24" t="n">
         <v>9</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AB24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="n">
         <v>11</v>
       </c>
-      <c r="AA24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AJ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN24" t="n">
         <v>34</v>
       </c>
-      <c r="AE24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>41</v>
-      </c>
       <c r="AO24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>2.1</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OWABmzDt</t>
+          <t>MaM5HOE8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3960,116 +3956,116 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H25" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P25" t="n">
         <v>2.25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="Q25" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>5</v>
       </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>11</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>7</v>
-      </c>
       <c r="Z25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI25" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -4078,10 +4074,10 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO25" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4091,7 +4087,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>p8hIHfSN</t>
+          <t>tQKg6b67</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4101,58 +4097,62 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2.05</v>
       </c>
-      <c r="L26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T26" t="n">
         <v>1.29</v>
@@ -4161,64 +4161,64 @@
         <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="X26" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK26" t="n">
         <v>13</v>
       </c>
-      <c r="AA26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>10</v>
-      </c>
       <c r="AL26" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO26" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bHebbBrg</t>
+          <t>0UiKMJjl</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4238,142 +4238,138 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.6</v>
+        <v>1.38</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.05</v>
+        <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="L27" t="n">
-        <v>2.88</v>
+        <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>5.8</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="U27" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>2.42</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X27" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>41</v>
       </c>
-      <c r="AC27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AK27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM27" t="n">
         <v>51</v>
       </c>
-      <c r="AE27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>21</v>
-      </c>
       <c r="AN27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>1.93</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>29hFfTsI</t>
+          <t>Uo1lSuTQ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4383,134 +4379,134 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.37</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U28" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
         <v>2.2</v>
       </c>
       <c r="X28" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC28" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD28" t="n">
         <v>41</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
         <v>81</v>
       </c>
       <c r="AI28" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL28" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO28" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4518,7 +4514,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4rG6fLKa</t>
+          <t>Cf6CH39N</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4528,89 +4524,89 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I29" t="n">
         <v>2.75</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
         <v>3.4</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="M29" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>10</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.4</v>
       </c>
-      <c r="K29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>12</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="T29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V29" t="n">
-        <v>3</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="X29" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>21</v>
@@ -4619,55 +4615,51 @@
         <v>29</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>2.95</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="n">
-        <v>2.44</v>
+        <v>2.05</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fTpTKcL0</t>
+          <t>vFJS4Zr1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4677,138 +4669,142 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.81</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J30" t="n">
         <v>4</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P30" t="n">
         <v>2.5</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="Q30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z30" t="n">
         <v>13</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>10</v>
-      </c>
       <c r="AA30" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AH30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN30" t="n">
         <v>41</v>
       </c>
-      <c r="AI30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>34</v>
-      </c>
       <c r="AO30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.85</v>
+      </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MaM5HOE8</t>
+          <t>YNZgUtgT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4818,138 +4814,142 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="I31" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P31" t="n">
         <v>2.75</v>
       </c>
-      <c r="K31" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N31" t="n">
-        <v>6</v>
-      </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.57</v>
       </c>
-      <c r="P31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S31" t="n">
-        <v>6</v>
+        <v>4.33</v>
       </c>
       <c r="T31" t="n">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W31" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="X31" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO31" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>tQKg6b67</t>
+          <t>0tU9IwkL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4959,101 +4959,101 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L32" t="n">
         <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="R32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.75</v>
       </c>
-      <c r="S32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X32" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Y32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
         <v>9.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB32" t="n">
         <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE32" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5074,882 +5074,20 @@
         <v>41</v>
       </c>
       <c r="AM32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN32" t="n">
         <v>34</v>
       </c>
-      <c r="AN32" t="n">
-        <v>41</v>
-      </c>
       <c r="AO32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>0UiKMJjl</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Dep. La Coruna</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>FC Cartagena SAD</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L33" t="n">
-        <v>8</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N33" t="n">
-        <v>11</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R33" t="n">
+      <c r="AR32" t="n">
         <v>2</v>
       </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Uo1lSuTQ</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Cadiz CF</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cf6CH39N</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Progreso</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>River Plate</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>10</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>vFJS4Zr1</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>17:45</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Danubio</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>3</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>YNZgUtgT</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N37" t="n">
-        <v>8</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T37" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>41</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>0tU9IwkL</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>23/03/2025</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Austin FC</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>San Diego FC</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>11</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS38" t="n">
+      <c r="AS32" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS32"/>
+  <dimension ref="A1:AS38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -710,10 +710,10 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -722,22 +722,22 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W2" t="n">
         <v>2.63</v>
@@ -851,10 +851,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.67</v>
@@ -908,7 +908,7 @@
         <v>5.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
         <v>29</v>
@@ -917,7 +917,7 @@
         <v>126</v>
       </c>
       <c r="AI3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ3" t="n">
         <v>23</v>
@@ -926,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1002,16 +1002,16 @@
         <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
         <v>6.5</v>
@@ -1032,13 +1032,13 @@
         <v>1.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Z4" t="n">
         <v>6.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>13</v>
@@ -1059,7 +1059,7 @@
         <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
@@ -1094,7 +1094,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pvwPOfKG</t>
+          <t>dC3XkXIF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1114,31 +1114,31 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Racing Cordoba</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Atletico Atlanta</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L5" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.17</v>
@@ -1147,28 +1147,28 @@
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>2.63</v>
@@ -1177,25 +1177,25 @@
         <v>1.44</v>
       </c>
       <c r="Y5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD5" t="n">
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
@@ -1207,19 +1207,19 @@
         <v>126</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>51</v>
@@ -1227,19 +1227,15 @@
       <c r="AO5" t="n">
         <v>101</v>
       </c>
-      <c r="AP5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1.78</v>
-      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SvpXQPqm</t>
+          <t>pvwPOfKG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1249,7 +1245,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1259,100 +1255,100 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Club A. Guemes</t>
+          <t>Racing Cordoba</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Atletico Atlanta</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="X6" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Y6" t="n">
         <v>5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1372,15 +1368,19 @@
       <c r="AO6" t="n">
         <v>101</v>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AP6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.78</v>
+      </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ln0Pigl3</t>
+          <t>SvpXQPqm</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1400,31 +1400,31 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Club A. Guemes</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CA Mitre</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1433,58 +1433,58 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.67</v>
       </c>
-      <c r="P7" t="n">
+      <c r="V7" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>7</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.08</v>
-      </c>
       <c r="W7" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="X7" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Y7" t="n">
         <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
         <v>23</v>
       </c>
-      <c r="AC7" t="n">
-        <v>29</v>
-      </c>
       <c r="AD7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
@@ -1493,10 +1493,10 @@
         <v>101</v>
       </c>
       <c r="AI7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1521,7 +1521,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0hruP3Ea</t>
+          <t>ln0Pigl3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1541,61 +1541,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>CA Mitre</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>1.8</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.73</v>
       </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V8" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="W8" t="n">
         <v>2.63</v>
@@ -1604,16 +1604,16 @@
         <v>1.44</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>29</v>
@@ -1634,10 +1634,10 @@
         <v>101</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
@@ -1662,7 +1662,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gn1F8rUI</t>
+          <t>0hruP3Ea</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1682,25 +1682,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tristan Suarez</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J9" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -1712,37 +1712,37 @@
         <v>1.17</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="W9" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="X9" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
@@ -1751,34 +1751,34 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
         <v>29</v>
       </c>
       <c r="AD9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -1803,7 +1803,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8f30WoMP</t>
+          <t>Gn1F8rUI</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1823,115 +1823,115 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>San Martin T.</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gimnasia y Tiro</t>
+          <t>Tristan Suarez</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V10" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
         <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AC10" t="n">
         <v>26</v>
       </c>
       <c r="AD10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
         <v>51</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>81</v>
       </c>
       <c r="AO10" t="n">
         <v>101</v>
@@ -1944,7 +1944,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>YwIxUkdd</t>
+          <t>8f30WoMP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1964,73 +1964,73 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>San Martin T.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Colon Santa Fe</t>
+          <t>Gimnasia y Tiro</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
       </c>
       <c r="K11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.83</v>
       </c>
-      <c r="L11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.67</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.36</v>
       </c>
-      <c r="S11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Y11" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
         <v>11</v>
@@ -2039,40 +2039,40 @@
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AH11" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="n">
         <v>101</v>
@@ -2085,7 +2085,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A90ggWlf</t>
+          <t>YwIxUkdd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2095,71 +2095,71 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Aguilas</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Colon Santa Fe</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>6.25</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
         <v>2.5</v>
@@ -2171,70 +2171,62 @@
         <v>5</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
         <v>101</v>
       </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
         <v>51</v>
       </c>
-      <c r="AN12" t="n">
-        <v>67</v>
-      </c>
       <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>1.27</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xtxgVhcC</t>
+          <t>IZ31iAJ6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2244,138 +2236,146 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ehime</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hokkaido Consadole Sapporo</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>2.63</v>
       </c>
       <c r="I13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.95</v>
       </c>
-      <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="W13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
         <v>13</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
       <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
         <v>41</v>
       </c>
-      <c r="AC13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>15</v>
-      </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AO13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OIVxZzbm</t>
+          <t>QJVj2RXO</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2385,101 +2385,101 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kofu</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Chiba</t>
+          <t>Ind. Medellin</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA14" t="n">
         <v>11</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>13</v>
-      </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
         <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2491,32 +2491,40 @@
         <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GC8BIFD6</t>
+          <t>A90ggWlf</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2526,138 +2534,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Montedio Yamagata</t>
+          <t>Aguilas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tokushima</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.4</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N15" t="n">
-        <v>9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.5</v>
       </c>
-      <c r="V15" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>2</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Y15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE15" t="n">
         <v>7</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI15" t="n">
         <v>11</v>
       </c>
-      <c r="AA15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AD15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="AL15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM15" t="n">
         <v>51</v>
       </c>
-      <c r="AI15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>26</v>
-      </c>
       <c r="AN15" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AO15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+        <v>1000</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dp9JoEsg</t>
+          <t>UeA3Kyqf</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2667,7 +2683,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2677,19 +2693,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Vegalta Sendai</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fujieda MYFC</t>
+          <t>Iwata</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
         <v>3.4</v>
@@ -2698,52 +2714,52 @@
         <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.44</v>
       </c>
-      <c r="P16" t="n">
+      <c r="V16" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W16" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA16" t="n">
         <v>9.5</v>
@@ -2752,57 +2768,53 @@
         <v>19</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>41</v>
       </c>
       <c r="AO16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>2.05</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4Yl6vczQ</t>
+          <t>GQmpXESa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2812,7 +2824,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2822,118 +2834,118 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Omiya Ardija</t>
+          <t>Renofa Yamaguchi</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mito</t>
+          <t>Kumamoto</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="T17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V17" t="n">
         <v>2.5</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X17" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y17" t="n">
         <v>7.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG17" t="n">
         <v>15</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
         <v>11</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>13</v>
-      </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN17" t="n">
         <v>34</v>
       </c>
-      <c r="AN17" t="n">
-        <v>41</v>
-      </c>
       <c r="AO17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AP17" t="inlineStr"/>
       <c r="AQ17" t="inlineStr"/>
@@ -2943,7 +2955,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>p6u1TWRO</t>
+          <t>xtxgVhcC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2963,132 +2975,128 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sagan Tosu</t>
+          <t>Ehime</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Toyama</t>
+          <t>Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V18" t="n">
+        <v>3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X18" t="n">
         <v>2</v>
       </c>
-      <c r="L18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="Y18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD18" t="n">
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM18" t="n">
         <v>15</v>
       </c>
-      <c r="AK18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>26</v>
       </c>
-      <c r="AN18" t="n">
-        <v>41</v>
-      </c>
       <c r="AO18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>2.1</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OWABmzDt</t>
+          <t>Cv2KGgrJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3108,118 +3116,118 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>V-Varen Nagasaki</t>
+          <t>Iwaki</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blaublitz</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.25</v>
       </c>
-      <c r="L19" t="n">
-        <v>5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X19" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE19" t="n">
         <v>8</v>
       </c>
-      <c r="AA19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>11</v>
-      </c>
       <c r="AF19" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3229,7 +3237,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>p8hIHfSN</t>
+          <t>OIVxZzbm</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3239,124 +3247,128 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>00:05</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dorados de Sinaloa</t>
+          <t>Kofu</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tampico Madero</t>
+          <t>Chiba</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>2.9</v>
+        <v>1.91</v>
       </c>
       <c r="J20" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V20" t="n">
         <v>3</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.4</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
         <v>13</v>
       </c>
-      <c r="AA20" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
         <v>29</v>
       </c>
-      <c r="AC20" t="n">
-        <v>21</v>
-      </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>5.7</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
@@ -3366,7 +3378,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>bHebbBrg</t>
+          <t>GC8BIFD6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3376,142 +3388,138 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2 de Mayo</t>
+          <t>Montedio Yamagata</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Tokushima</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="V21" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.42</v>
-      </c>
       <c r="W21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD21" t="n">
         <v>34</v>
       </c>
-      <c r="AD21" t="n">
-        <v>41</v>
-      </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
         <v>41</v>
       </c>
       <c r="AO21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>1.95</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>29hFfTsI</t>
+          <t>dp9JoEsg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3521,65 +3529,65 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sp. Luqueno</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Fujieda MYFC</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U22" t="n">
         <v>1.57</v>
@@ -3594,19 +3602,19 @@
         <v>1.62</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
         <v>41</v>
@@ -3615,7 +3623,7 @@
         <v>7.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
         <v>21</v>
@@ -3624,31 +3632,31 @@
         <v>81</v>
       </c>
       <c r="AI22" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>41</v>
       </c>
       <c r="AO22" t="n">
-        <v>1250</v>
+        <v>101</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3656,7 +3664,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4rG6fLKa</t>
+          <t>4Yl6vczQ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3666,146 +3674,138 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Los Chankas</t>
+          <t>Omiya Ardija</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Cienciano</t>
+          <t>Mito</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.25</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N23" t="n">
-        <v>13</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="T23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.8</v>
       </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.62</v>
-      </c>
       <c r="X23" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
         <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL23" t="n">
         <v>41</v>
       </c>
-      <c r="AI23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>26</v>
-      </c>
       <c r="AM23" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>1.56</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fTpTKcL0</t>
+          <t>p6u1TWRO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3815,138 +3815,142 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Sagan Tosu</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Toyama</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
         <v>10</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y24" t="n">
+      <c r="AB24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE24" t="n">
         <v>8</v>
       </c>
-      <c r="Z24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AF24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
         <v>26</v>
       </c>
-      <c r="AE24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH24" t="n">
+      <c r="AN24" t="n">
         <v>41</v>
       </c>
-      <c r="AI24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>34</v>
-      </c>
       <c r="AO24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MaM5HOE8</t>
+          <t>OWABmzDt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3956,116 +3960,116 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>V-Varen Nagasaki</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Blaublitz</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I25" t="n">
         <v>4.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="K25" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="X25" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF25" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AG25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>23</v>
       </c>
-      <c r="AH25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>21</v>
-      </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -4074,10 +4078,10 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO25" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4087,7 +4091,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tQKg6b67</t>
+          <t>p8hIHfSN</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4097,62 +4101,58 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>00:05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Dorados de Sinaloa</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Tampico Madero</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
+        <v>3.3</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S26" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
         <v>1.29</v>
@@ -4161,64 +4161,64 @@
         <v>1.44</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="X26" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="Z26" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB26" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN26" t="n">
         <v>29</v>
       </c>
-      <c r="AE26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>41</v>
-      </c>
       <c r="AO26" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4228,7 +4228,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0UiKMJjl</t>
+          <t>bHebbBrg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4238,138 +4238,142 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.38</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J27" t="n">
         <v>4.5</v>
       </c>
-      <c r="I27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.91</v>
-      </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>5.6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>2.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W27" t="n">
         <v>2</v>
       </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V27" t="n">
-        <v>3</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2.1</v>
-      </c>
       <c r="X27" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="Y27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF27" t="n">
         <v>6.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
         <v>67</v>
       </c>
       <c r="AI27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL27" t="n">
         <v>19</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AM27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN27" t="n">
         <v>41</v>
       </c>
-      <c r="AK27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL27" t="n">
+      <c r="AO27" t="n">
         <v>101</v>
       </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
+      <c r="AP27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.93</v>
+      </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Uo1lSuTQ</t>
+          <t>29hFfTsI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4379,71 +4383,71 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Sp. Luqueno</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K28" t="n">
         <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W28" t="n">
         <v>2.2</v>
@@ -4452,61 +4456,61 @@
         <v>1.62</v>
       </c>
       <c r="Y28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD28" t="n">
         <v>41</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
         <v>81</v>
       </c>
       <c r="AI28" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN28" t="n">
         <v>41</v>
       </c>
-      <c r="AM28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>51</v>
-      </c>
       <c r="AO28" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AP28" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
@@ -4514,7 +4518,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cf6CH39N</t>
+          <t>4rG6fLKa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4524,142 +4528,146 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Los Chankas</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Cienciano</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
         <v>2.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
         <v>3.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.03</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V29" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W29" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="X29" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD29" t="n">
         <v>26</v>
       </c>
-      <c r="AC29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>29</v>
-      </c>
       <c r="AE29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK29" t="n">
         <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>2.95</v>
+      </c>
       <c r="AR29" t="n">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vFJS4Zr1</t>
+          <t>fTpTKcL0</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4669,142 +4677,138 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.45</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L30" t="n">
         <v>4</v>
       </c>
-      <c r="K30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
+        <v>10</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
         <v>6.5</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z30" t="n">
+      <c r="AG30" t="n">
         <v>13</v>
       </c>
-      <c r="AA30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB30" t="n">
+      <c r="AH30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
         <v>34</v>
       </c>
-      <c r="AC30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>41</v>
-      </c>
       <c r="AO30" t="n">
-        <v>301</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>1.85</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>YNZgUtgT</t>
+          <t>MaM5HOE8</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4814,142 +4818,138 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L31" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R31" t="n">
         <v>1.4</v>
       </c>
-      <c r="P31" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.57</v>
-      </c>
       <c r="S31" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="U31" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X31" t="n">
         <v>1.5</v>
       </c>
-      <c r="V31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2</v>
-      </c>
-      <c r="X31" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Y31" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AI31" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM31" t="n">
         <v>41</v>
       </c>
-      <c r="AM31" t="n">
-        <v>34</v>
-      </c>
       <c r="AN31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>2.1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0tU9IwkL</t>
+          <t>tQKg6b67</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4959,101 +4959,101 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
         <v>4.33</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R32" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S32" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W32" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="n">
         <v>9.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB32" t="n">
         <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG32" t="n">
         <v>15</v>
@@ -5074,20 +5074,882 @@
         <v>41</v>
       </c>
       <c r="AM32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="n">
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0UiKMJjl</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Dep. La Coruna</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Uo1lSuTQ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Cadiz CF</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cf6CH39N</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Progreso</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>10</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X35" t="n">
         <v>2</v>
       </c>
-      <c r="AS32" t="n">
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vFJS4Zr1</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>17:45</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>YNZgUtgT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Miramar</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2</v>
+      </c>
+      <c r="X37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0tU9IwkL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23/03/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>USA - MLS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>San Diego FC</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>11</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>201</v>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS38" t="n">
         <v>1.85</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -804,7 +804,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0CvdHCCj</t>
+          <t>dKylNsqC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -824,31 +824,31 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Ferro</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -887,13 +887,13 @@
         <v>1.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Z3" t="n">
         <v>6.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -908,13 +908,13 @@
         <v>5.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG3" t="n">
         <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI3" t="n">
         <v>8.5</v>
@@ -923,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
@@ -938,10 +938,10 @@
         <v>101</v>
       </c>
       <c r="AP3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>1.98</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -949,7 +949,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dKylNsqC</t>
+          <t>dC3XkXIF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -969,61 +969,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.83</v>
       </c>
-      <c r="L4" t="n">
-        <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="P4" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W4" t="n">
         <v>2.75</v>
@@ -1032,69 +1032,65 @@
         <v>1.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
         <v>51</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AG4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
         <v>29</v>
       </c>
-      <c r="AH4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>67</v>
-      </c>
       <c r="AM4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN4" t="n">
         <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>67</v>
       </c>
       <c r="AO4" t="n">
         <v>101</v>
       </c>
-      <c r="AP4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dC3XkXIF</t>
+          <t>0CvdHCCj</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1114,121 +1110,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="U5" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB5" t="n">
         <v>13</v>
       </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>51</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AI5" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO5" t="n">
         <v>101</v>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.98</v>
+      </c>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
     </row>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>1.8</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.17</v>
@@ -1288,10 +1288,10 @@
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q6" t="n">
         <v>3.4</v>
@@ -1306,10 +1306,10 @@
         <v>1.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="W6" t="n">
         <v>2.63</v>
@@ -1318,19 +1318,19 @@
         <v>1.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD6" t="n">
         <v>51</v>
@@ -1339,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
@@ -1351,19 +1351,19 @@
         <v>7</v>
       </c>
       <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
         <v>17</v>
       </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO6" t="n">
         <v>101</v>
@@ -1427,10 +1427,10 @@
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.62</v>
@@ -1445,10 +1445,10 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1568,10 +1568,10 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -1592,10 +1592,10 @@
         <v>1.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
         <v>2.63</v>
@@ -1691,16 +1691,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>2.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>1.8</v>
@@ -1721,28 +1721,28 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="U9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" t="n">
         <v>5.5</v>
@@ -1775,7 +1775,7 @@
         <v>101</v>
       </c>
       <c r="AI9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H10" t="n">
         <v>2.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L10" t="n">
         <v>4.33</v>
@@ -1865,7 +1865,7 @@
         <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
         <v>6.5</v>
@@ -1898,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>41</v>
@@ -1907,13 +1907,13 @@
         <v>5</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -1973,28 +1973,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K11" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O11" t="n">
         <v>1.83</v>
@@ -2003,55 +2003,55 @@
         <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="V11" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="W11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
       </c>
       <c r="AC11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD11" t="n">
         <v>51</v>
       </c>
       <c r="AE11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>6.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH11" t="n">
         <v>151</v>
@@ -2060,19 +2060,19 @@
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AO11" t="n">
         <v>101</v>
@@ -2114,28 +2114,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K12" t="n">
         <v>1.83</v>
       </c>
       <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.67</v>
@@ -2162,22 +2162,22 @@
         <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>23</v>
@@ -2192,28 +2192,28 @@
         <v>6.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
         <v>19</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>17</v>
       </c>
       <c r="AL12" t="n">
         <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO12" t="n">
         <v>101</v>
@@ -2255,58 +2255,58 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>3.75</v>
       </c>
       <c r="K13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.73</v>
       </c>
-      <c r="L13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.83</v>
-      </c>
       <c r="P13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="S13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y13" t="n">
         <v>5.5</v>
@@ -2327,31 +2327,31 @@
         <v>51</v>
       </c>
       <c r="AE13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI13" t="n">
         <v>6</v>
       </c>
       <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
         <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>51</v>
@@ -2366,10 +2366,10 @@
         <v>1.78</v>
       </c>
       <c r="AR13" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="14">
@@ -2404,34 +2404,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
         <v>2.25</v>
@@ -2443,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U14" t="n">
         <v>1.5</v>
@@ -2458,19 +2458,19 @@
         <v>1.83</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
         <v>34</v>
@@ -2488,22 +2488,22 @@
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO14" t="n">
         <v>351</v>
@@ -2515,10 +2515,10 @@
         <v>2.1</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="15">
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
         <v>6.25</v>
@@ -2571,10 +2571,10 @@
         <v>7.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2583,31 +2583,31 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W15" t="n">
         <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
         <v>6</v>
@@ -2619,13 +2619,13 @@
         <v>10</v>
       </c>
       <c r="AC15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF15" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         <v>101</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>29</v>
@@ -2658,16 +2658,16 @@
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="16">
@@ -4402,19 +4402,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L28" t="n">
         <v>3.5</v>
@@ -4423,7 +4423,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
         <v>1.5</v>
@@ -4435,7 +4435,7 @@
         <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -4547,28 +4547,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
         <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4601,16 +4601,16 @@
         <v>2.2</v>
       </c>
       <c r="Y29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
         <v>19</v>
@@ -4631,16 +4631,16 @@
         <v>41</v>
       </c>
       <c r="AI29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM29" t="n">
         <v>21</v>
@@ -5556,7 +5556,7 @@
         <v>2.88</v>
       </c>
       <c r="I36" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -5568,22 +5568,22 @@
         <v>3.4</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R36" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S36" t="n">
         <v>5.5</v>
@@ -5592,19 +5592,19 @@
         <v>1.14</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z36" t="n">
         <v>13</v>
@@ -5643,10 +5643,10 @@
         <v>11</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN36" t="n">
         <v>41</v>
@@ -5655,10 +5655,10 @@
         <v>301</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -5695,16 +5695,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K37" t="n">
         <v>2</v>
@@ -5752,7 +5752,7 @@
         <v>6.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA37" t="n">
         <v>9.5</v>
@@ -5761,13 +5761,13 @@
         <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="n">
         <v>34</v>
       </c>
       <c r="AE37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF37" t="n">
         <v>6.5</v>
@@ -5782,7 +5782,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK37" t="n">
         <v>13</v>
@@ -5797,7 +5797,7 @@
         <v>41</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AP37" t="n">
         <v>1.78</v>
@@ -5840,22 +5840,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -5894,22 +5894,22 @@
         <v>2</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA38" t="n">
         <v>8.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
         <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE38" t="n">
         <v>11</v>
@@ -5921,7 +5921,7 @@
         <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="n">
         <v>12</v>
@@ -5936,10 +5936,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN38" t="n">
         <v>34</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>41</v>
       </c>
       <c r="AO38" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -2595,7 +2595,7 @@
         <v>1.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V15" t="n">
         <v>2.5</v>
@@ -2604,7 +2604,7 @@
         <v>2.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-23.xlsx
@@ -2180,7 +2180,7 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD12" t="n">
         <v>41</v>
@@ -2553,28 +2553,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2583,43 +2583,43 @@
         <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U15" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y15" t="n">
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
         <v>41</v>
@@ -2628,46 +2628,46 @@
         <v>7.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>26</v>
       </c>
-      <c r="AH15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>29</v>
-      </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AR15" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="16">
